--- a/Income/ILMN_inc.xlsx
+++ b/Income/ILMN_inc.xlsx
@@ -2108,16 +2108,16 @@
         <v>0.6801</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.69</v>
+        <v>0.6902</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.7032</v>
+        <v>0.7034</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.7034</v>
+        <v>0.7036</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.6961</v>
+        <v>0.6963</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.6924</v>
@@ -2235,16 +2235,16 @@
         <v>0.1791</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2207</v>
+        <v>0.2208</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0.2569</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.2727</v>
+        <v>0.2728</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.2779</v>
+        <v>0.278</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.2642</v>
@@ -2362,16 +2362,16 @@
         <v>0.2643</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.2553</v>
+        <v>0.2554</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.2631</v>
+        <v>0.2632</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.2988</v>
+        <v>0.2989</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.3155</v>
+        <v>0.3156</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.3059</v>
@@ -2492,13 +2492,13 @@
         <v>0.197</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.2067</v>
+        <v>0.2068</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.2648</v>
+        <v>0.2649</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.2827</v>
+        <v>0.2828</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2813</v>
@@ -2616,16 +2616,16 @@
         <v>0.2785</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.2899</v>
+        <v>0.2909</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.3132</v>
+        <v>0.3142</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.264</v>
+        <v>0.2649</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.2367</v>
+        <v>0.2377</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.1998</v>
@@ -3632,16 +3632,16 @@
         <v>0.2362</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.2769</v>
+        <v>0.2801</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.3138</v>
+        <v>0.3169</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.3309</v>
+        <v>0.3338</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.3411</v>
+        <v>0.3441</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.3348</v>
@@ -3759,16 +3759,16 @@
         <v>0.3368</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.3467</v>
+        <v>0.3477</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.3684</v>
+        <v>0.3694</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.3182</v>
+        <v>0.3192</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.2957</v>
+        <v>0.2966</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.2625</v>
